--- a/results/mp/logistic/corona/confidence/210/desired-masking-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/desired-masking-0.35/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,79 +40,79 @@
     <t>name</t>
   </si>
   <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>selfish</t>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>low</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>empty</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
+    <t>fight</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>19</t>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>of</t>
   </si>
   <si>
     <t>co</t>
@@ -121,127 +121,136 @@
     <t>.</t>
   </si>
   <si>
+    <t>to</t>
+  </si>
+  <si>
     <t>the</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>won</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>keep</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>you</t>
   </si>
   <si>
-    <t>corona</t>
+    <t>and</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9666666666666667</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,7 +727,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9210526315789473</v>
+        <v>0.9459459459459459</v>
       </c>
       <c r="C4">
         <v>35</v>
@@ -736,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -768,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -789,16 +798,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.85</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K6">
-        <v>0.9393939393939394</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L6">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="M6">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8666666666666667</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>247</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -886,31 +895,31 @@
         <v>0</v>
       </c>
       <c r="H7">
+        <v>45</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L7">
+        <v>55</v>
+      </c>
+      <c r="M7">
+        <v>55</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
         <v>4</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7">
-        <v>0.9302325581395349</v>
-      </c>
-      <c r="L7">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>40</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8527397260273972</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>249</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K8">
-        <v>0.9166666666666666</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -968,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6944444444444444</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -989,16 +998,16 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.9086161879895561</v>
+        <v>0.8955613577023499</v>
       </c>
       <c r="L9">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M9">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6923076923076923</v>
+        <v>0.6918604651162791</v>
       </c>
       <c r="C10">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="D10">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8867924528301887</v>
+        <v>0.8873239436619719</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6862745098039216</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,31 +1095,31 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8738738738738738</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="L11">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M11">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="N11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6779661016949152</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.86875</v>
+        <v>0.875</v>
       </c>
       <c r="L12">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6724806201550387</v>
+        <v>0.656084656084656</v>
       </c>
       <c r="C13">
-        <v>347</v>
+        <v>124</v>
       </c>
       <c r="D13">
-        <v>347</v>
+        <v>124</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>169</v>
+        <v>65</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13">
-        <v>0.8671875</v>
+        <v>0.875</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6613756613756614</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="C14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.8620689655172413</v>
+        <v>0.875</v>
       </c>
       <c r="L14">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="M14">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.65</v>
+        <v>0.6174496644295302</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6410256410256411</v>
+        <v>0.6083333333333333</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>219</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1336,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16">
+        <v>0.8620689655172413</v>
+      </c>
+      <c r="L16">
         <v>50</v>
       </c>
-      <c r="K16">
-        <v>0.8591549295774648</v>
-      </c>
-      <c r="L16">
-        <v>122</v>
-      </c>
       <c r="M16">
-        <v>122</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5972222222222222</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>145</v>
+        <v>35</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.8461538461538461</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L17">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="M17">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5818181818181818</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.8297872340425532</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1460,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1468,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5771812080536913</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C19">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="D19">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.8292682926829268</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="L19">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1510,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1518,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.509090909090909</v>
+        <v>0.4555555555555555</v>
       </c>
       <c r="C20">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1536,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.7936507936507936</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4666666666666667</v>
+        <v>0.4464285714285715</v>
       </c>
       <c r="C21">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1586,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.7916666666666666</v>
+        <v>0.775</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4464285714285715</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1636,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.775</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4222222222222222</v>
+        <v>0.3625</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1686,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.7676470588235295</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L23">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3766233766233766</v>
+        <v>0.3412698412698413</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1736,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.7450980392156863</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>250</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3412698412698413</v>
+        <v>0.2439678284182306</v>
       </c>
       <c r="C25">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D25">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1786,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.7428571428571429</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>171</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2198391420911528</v>
+        <v>0.1433333333333333</v>
       </c>
       <c r="C26">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1836,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.7154811715481172</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L26">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>68</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1868,37 +1877,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01215521271622253</v>
+        <v>0.01606086221470837</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="D27">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E27">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="F27">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>2113</v>
+        <v>2328</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.6915254237288135</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L27">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M27">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1910,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1918,37 +1927,37 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01096774193548387</v>
+        <v>0.01449742268041237</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D28">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E28">
-        <v>0.17</v>
+        <v>0.06</v>
       </c>
       <c r="F28">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3066</v>
+        <v>3059</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.6702127659574468</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L28">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M28">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1960,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1968,37 +1977,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.006438631790744467</v>
+        <v>0.008067769261799113</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D29">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="E29">
-        <v>0.45</v>
+        <v>0.49</v>
       </c>
       <c r="F29">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29">
-        <v>4938</v>
+        <v>4918</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29">
-        <v>0.6571428571428571</v>
+        <v>0.7</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2010,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2018,31 +2027,31 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005646417445482866</v>
+        <v>0.006052141527001862</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30">
         <v>58</v>
       </c>
       <c r="E30">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="F30">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>5107</v>
+        <v>4270</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.6888888888888889</v>
       </c>
       <c r="L30">
         <v>31</v>
@@ -2060,21 +2069,45 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>0.005261106780982073</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>60</v>
+      </c>
+      <c r="E31">
+        <v>0.55</v>
+      </c>
+      <c r="F31">
+        <v>0.45</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>5105</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K31">
-        <v>0.6179775280898876</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L31">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M31">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2086,21 +2119,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L32">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2112,21 +2145,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.6404494382022472</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2138,21 +2171,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>20</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K34">
         <v>0.5</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2164,21 +2197,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.4912280701754386</v>
+        <v>0.4794520547945205</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2190,21 +2223,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.4871794871794872</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2216,21 +2249,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.4794520547945205</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L37">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2242,21 +2275,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K38">
-        <v>0.4262295081967213</v>
+        <v>0.453125</v>
       </c>
       <c r="L38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2273,10 +2306,10 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.2096774193548387</v>
+        <v>0.4406779661016949</v>
       </c>
       <c r="L39">
         <v>26</v>
@@ -2294,111 +2327,189 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>98</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.02835696413678065</v>
+        <v>0.2385321100917431</v>
       </c>
       <c r="L40">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1165</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.009717868338557993</v>
+        <v>0.04260651629072681</v>
       </c>
       <c r="L41">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N41">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O41">
-        <v>0.26</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>3159</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.005646417445482866</v>
+        <v>0.01839339339339339</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M42">
         <v>58</v>
       </c>
       <c r="N42">
-        <v>0.5</v>
+        <v>0.84</v>
       </c>
       <c r="O42">
-        <v>0.5</v>
+        <v>0.16</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>5107</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K43">
+        <v>0.01047339757017176</v>
+      </c>
+      <c r="L43">
+        <v>25</v>
+      </c>
+      <c r="M43">
+        <v>32</v>
+      </c>
+      <c r="N43">
+        <v>0.78</v>
+      </c>
+      <c r="O43">
+        <v>0.22</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K43">
-        <v>0.005237711522965351</v>
-      </c>
-      <c r="L43">
-        <v>26</v>
-      </c>
-      <c r="M43">
+      <c r="K44">
+        <v>0.007667473769168685</v>
+      </c>
+      <c r="L44">
+        <v>38</v>
+      </c>
+      <c r="M44">
+        <v>78</v>
+      </c>
+      <c r="N44">
+        <v>0.49</v>
+      </c>
+      <c r="O44">
+        <v>0.51</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>4918</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K45">
+        <v>0.007438400743840074</v>
+      </c>
+      <c r="L45">
+        <v>32</v>
+      </c>
+      <c r="M45">
         <v>58</v>
       </c>
-      <c r="N43">
+      <c r="N45">
+        <v>0.55</v>
+      </c>
+      <c r="O45">
         <v>0.45</v>
       </c>
-      <c r="O43">
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K46">
+        <v>0.006422732580770728</v>
+      </c>
+      <c r="L46">
+        <v>33</v>
+      </c>
+      <c r="M46">
+        <v>60</v>
+      </c>
+      <c r="N46">
         <v>0.55</v>
       </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>4938</v>
+      <c r="O46">
+        <v>0.45</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>5105</v>
       </c>
     </row>
   </sheetData>
